--- a/PastaDesenhosEngenharia/2SIR-ListaRequisitos-SI-Estacionamento.xlsx
+++ b/PastaDesenhosEngenharia/2SIR-ListaRequisitos-SI-Estacionamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIAP-2024\TEMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B8BC87-89F4-447E-93D9-595166A4C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037826FF-0A25-4905-A405-A225A63A4137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="915" windowWidth="11310" windowHeight="11175" xr2:uid="{B1B7B55A-FA17-40D8-88CB-E329E6023457}"/>
+    <workbookView xWindow="105" yWindow="180" windowWidth="11010" windowHeight="11175" xr2:uid="{B1B7B55A-FA17-40D8-88CB-E329E6023457}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>LISTA DE REQUISITOS - PROJETO SAC (Sistema de atendimento ao consumidor)</t>
   </si>
@@ -99,9 +99,6 @@
     <t>terminal de pagamento</t>
   </si>
   <si>
-    <t>usar aplicativos de meios de pagamento, cartão ou dinheiro, TAG</t>
-  </si>
-  <si>
     <t xml:space="preserve">controle de cancelas e barreiras de entrada e saídas </t>
   </si>
   <si>
@@ -121,6 +118,36 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>câmeras de monitoração de vagas e posição de veículos</t>
+  </si>
+  <si>
+    <t>sinaização de alerta de esgotamento de capacidade</t>
+  </si>
+  <si>
+    <t>integração do sistema de gestão com sensores de ambiente</t>
+  </si>
+  <si>
+    <t>sensores de incêndio e de água</t>
+  </si>
+  <si>
+    <t>integração de APPs de gestão tráfego com o estacionamento</t>
+  </si>
+  <si>
+    <t>acumlar pontos de premiação por uso do estacionamento</t>
+  </si>
+  <si>
+    <t>cada cliente acumula pontos que podem gerar prêmios e descontos</t>
+  </si>
+  <si>
+    <t>controlar serviços adicionais fornecidos</t>
+  </si>
+  <si>
+    <t>usar aplicativos de meios de pagamento, cartão ou dinheiro, TAG, com cálculo automático do preço</t>
+  </si>
+  <si>
+    <t>visualização de vagas ocupadas e livres e posição de carros pelos manobristas</t>
   </si>
 </sst>
 </file>
@@ -564,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1041880-11DC-4E5A-86D0-D847B65BD562}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -644,13 +671,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -659,16 +686,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,13 +703,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -691,13 +718,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -706,13 +733,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -721,13 +748,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -736,13 +763,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>18</v>
@@ -753,13 +780,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -768,13 +795,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>21</v>
@@ -785,13 +812,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>23</v>
@@ -799,85 +826,111 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="B20" s="17"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="B21" s="17"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="B22" s="17"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="17"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="B24" s="17"/>
       <c r="C24" s="3"/>
       <c r="D24" s="7"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
